--- a/nodes_source_analyses/energy/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_truck_using_compressed_natural_gas.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0370CE-69D4-C54F-A927-6E866FE44755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,20 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>Source</t>
   </si>
@@ -389,9 +400,6 @@
     <t>mln</t>
   </si>
   <si>
-    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
-  </si>
-  <si>
     <t>truck tonne kms</t>
   </si>
   <si>
@@ -405,23 +413,42 @@
   </si>
   <si>
     <t>Note: used 2016 data since tonne kms is only available for 2016</t>
+  </si>
+  <si>
+    <t>Note: vans are no longer part of trucks in the ETM</t>
+  </si>
+  <si>
+    <t>Weighted average is therefore no longer used</t>
+  </si>
+  <si>
+    <t>Only truck data is used</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -946,459 +973,460 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1652,6 +1680,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1673,7 +1704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1710,7 +1747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1747,7 +1790,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1784,7 +1833,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1822,7 +1877,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1860,7 +1921,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1898,7 +1965,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1936,7 +2009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1974,7 +2053,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2012,7 +2097,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2472,8 +2563,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2482,7 +2573,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="15" customWidth="1"/>
@@ -2490,24 +2581,24 @@
     <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="21" customFormat="1">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2516,7 +2607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2525,7 +2616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2534,29 +2625,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="58"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="59" t="s">
         <v>31</v>
@@ -2565,33 +2656,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="59"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="59"/>
       <c r="C13" s="62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="59" t="s">
         <v>36</v>
@@ -2600,49 +2691,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="59"/>
       <c r="C17" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="59"/>
       <c r="C18" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="59"/>
       <c r="C19" s="66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="67"/>
       <c r="C21" s="69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="67"/>
       <c r="C22" s="70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="67"/>
       <c r="C23" s="71" t="s">
         <v>44</v>
@@ -2655,17 +2746,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="28" customWidth="1"/>
@@ -2680,50 +2771,50 @@
     <col min="11" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="127" t="s">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
+      <c r="B2" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="132"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-    </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1">
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="30"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2734,7 +2825,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="18" customFormat="1">
       <c r="B8" s="72"/>
       <c r="C8" s="73" t="s">
         <v>20</v>
@@ -2755,7 +2846,7 @@
       </c>
       <c r="J8" s="75"/>
     </row>
-    <row r="9" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="18" customFormat="1">
       <c r="B9" s="17"/>
       <c r="C9" s="12"/>
       <c r="D9" s="25"/>
@@ -2766,7 +2857,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
         <v>45</v>
@@ -2779,7 +2870,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="17"/>
       <c r="C11" s="110" t="s">
         <v>78</v>
@@ -2789,7 +2880,7 @@
       </c>
       <c r="E11" s="27">
         <f>'Research data'!E7</f>
-        <v>0.6346560383252916</v>
+        <v>0.97134736735257787</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="116" t="s">
@@ -2801,7 +2892,7 @@
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="33"/>
       <c r="C12" s="29"/>
       <c r="D12" s="76"/>
@@ -2812,7 +2903,7 @@
       <c r="I12" s="78"/>
       <c r="J12" s="79"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="33"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
@@ -2825,7 +2916,7 @@
       <c r="I13" s="78"/>
       <c r="J13" s="79"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="33"/>
       <c r="C14" s="32" t="s">
         <v>23</v>
@@ -2847,7 +2938,7 @@
       </c>
       <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="33"/>
       <c r="C15" s="32" t="s">
         <v>22</v>
@@ -2866,7 +2957,7 @@
       </c>
       <c r="J15" s="79"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -2877,7 +2968,7 @@
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
     </row>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G5"/>
@@ -2888,8 +2979,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:K15"/>
@@ -2898,7 +2989,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="38" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="38" customWidth="1"/>
@@ -2913,8 +3004,8 @@
     <col min="12" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -2926,7 +3017,7 @@
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" s="18" customFormat="1">
       <c r="B4" s="17"/>
       <c r="C4" s="82" t="s">
         <v>46</v>
@@ -2950,7 +3041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="18" customHeight="1">
       <c r="B5" s="41"/>
       <c r="C5" s="47"/>
       <c r="D5" s="42"/>
@@ -2959,7 +3050,7 @@
       <c r="G5" s="45"/>
       <c r="K5" s="53"/>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="41"/>
       <c r="C6" s="11" t="s">
         <v>45</v>
@@ -2972,7 +3063,7 @@
       <c r="J6" s="42"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="41"/>
       <c r="C7" s="112" t="s">
         <v>78</v>
@@ -2982,19 +3073,19 @@
       </c>
       <c r="E7" s="114">
         <f>I7</f>
-        <v>0.6346560383252916</v>
+        <v>0.97134736735257787</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="98"/>
       <c r="H7" s="42"/>
       <c r="I7" s="114">
         <f>Notes!E104</f>
-        <v>0.6346560383252916</v>
+        <v>0.97134736735257787</v>
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="41"/>
       <c r="C8" s="47"/>
       <c r="D8" s="42"/>
@@ -3003,7 +3094,7 @@
       <c r="G8" s="45"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="41"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -3017,7 +3108,7 @@
       <c r="J9" s="42"/>
       <c r="K9" s="52"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="48" t="s">
         <v>3</v>
@@ -3039,7 +3130,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="41"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3051,7 +3142,7 @@
       <c r="J11" s="42"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="11" t="s">
         <v>47</v>
@@ -3065,7 +3156,7 @@
       <c r="J12" s="42"/>
       <c r="K12" s="97"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="C13" s="81" t="s">
         <v>48</v>
       </c>
@@ -3088,7 +3179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="C14" s="81" t="s">
         <v>49</v>
       </c>
@@ -3111,7 +3202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="C15" s="81"/>
       <c r="D15" s="80"/>
       <c r="E15" s="51"/>
@@ -3131,8 +3222,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J21"/>
@@ -3141,7 +3232,7 @@
       <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="83" customWidth="1"/>
     <col min="2" max="2" width="4" style="83" customWidth="1"/>
@@ -3155,8 +3246,8 @@
     <col min="11" max="16384" width="33.1640625" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="85"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -3167,7 +3258,7 @@
       <c r="I2" s="87"/>
       <c r="J2" s="86"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="88"/>
       <c r="C3" s="12" t="s">
         <v>16</v>
@@ -3180,7 +3271,7 @@
       <c r="I3" s="89"/>
       <c r="J3" s="90"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="88"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
@@ -3191,7 +3282,7 @@
       <c r="I4" s="91"/>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="92"/>
       <c r="C5" s="73" t="s">
         <v>17</v>
@@ -3218,7 +3309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="88"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3229,7 +3320,7 @@
       <c r="I6" s="89"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="88"/>
       <c r="C7" s="94"/>
       <c r="D7" s="104" t="s">
@@ -3252,7 +3343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="88"/>
       <c r="C8" s="94" t="s">
         <v>50</v>
@@ -3265,7 +3356,7 @@
       <c r="I8" s="90"/>
       <c r="J8" s="96"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="88"/>
       <c r="C9" s="94"/>
       <c r="D9" s="90"/>
@@ -3276,7 +3367,7 @@
       <c r="I9" s="90"/>
       <c r="J9" s="96"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="88"/>
       <c r="C10" s="94"/>
       <c r="D10" s="90"/>
@@ -3287,7 +3378,7 @@
       <c r="I10" s="90"/>
       <c r="J10" s="90"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="88"/>
       <c r="C11" s="117" t="s">
         <v>76</v>
@@ -3312,7 +3403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="88"/>
       <c r="C12" s="94" t="s">
         <v>6</v>
@@ -3325,7 +3416,7 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="88"/>
       <c r="C13" s="94" t="s">
         <v>3</v>
@@ -3338,7 +3429,7 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
     </row>
-    <row r="15" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" s="118" customFormat="1">
       <c r="C15" s="118" t="s">
         <v>80</v>
       </c>
@@ -3355,7 +3446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="118" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" s="118" customFormat="1">
       <c r="C16" s="118" t="s">
         <v>84</v>
       </c>
@@ -3372,83 +3463,83 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="136" t="s">
+    <row r="18" spans="3:9" s="127" customFormat="1">
+      <c r="C18" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="136" t="s">
+      <c r="E18" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="136">
+      <c r="G18" s="127">
         <v>2015</v>
       </c>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="137" t="s">
+      <c r="I18" s="128" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="136" t="s">
+    <row r="19" spans="3:9" s="127" customFormat="1">
+      <c r="C19" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="136" t="s">
+      <c r="E19" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="127">
         <v>2015</v>
       </c>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="137" t="s">
+      <c r="I19" s="128" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="136" t="s">
+    <row r="20" spans="3:9" s="127" customFormat="1">
+      <c r="C20" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="127">
         <v>2016</v>
       </c>
-      <c r="H20" s="137" t="s">
+      <c r="H20" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="137" t="s">
+      <c r="I20" s="128" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="136" t="s">
+    <row r="21" spans="3:9" s="127" customFormat="1">
+      <c r="C21" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="136">
+      <c r="G21" s="127">
         <v>2016</v>
       </c>
-      <c r="H21" s="137" t="s">
+      <c r="H21" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="137" t="s">
+      <c r="I21" s="128" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3459,14 +3550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="100" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="100" customWidth="1"/>
@@ -3478,8 +3569,8 @@
     <col min="12" max="16384" width="10.83203125" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="101"/>
       <c r="C2" s="102"/>
       <c r="D2" s="102"/>
@@ -3491,7 +3582,7 @@
       <c r="J2" s="102"/>
       <c r="K2" s="102"/>
     </row>
-    <row r="3" spans="2:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" s="18" customFormat="1">
       <c r="B3" s="72"/>
       <c r="C3" s="73" t="s">
         <v>40</v>
@@ -3507,7 +3598,7 @@
       <c r="J3" s="73"/>
       <c r="K3" s="73"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
       <c r="D4" s="104"/>
@@ -3519,7 +3610,7 @@
       <c r="J4" s="104"/>
       <c r="K4" s="104"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="103"/>
       <c r="C5" s="104"/>
       <c r="D5" s="104"/>
@@ -3531,7 +3622,7 @@
       <c r="J5" s="104"/>
       <c r="K5" s="104"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="103"/>
       <c r="C6" s="104" t="s">
         <v>51</v>
@@ -3545,7 +3636,7 @@
       <c r="J6" s="104"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="103"/>
       <c r="C7" s="104" t="s">
         <v>61</v>
@@ -3559,7 +3650,7 @@
       <c r="J7" s="104"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
@@ -3571,7 +3662,7 @@
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
       <c r="D9" s="104"/>
@@ -3583,7 +3674,7 @@
       <c r="J9" s="104"/>
       <c r="K9" s="104"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
       <c r="D10" s="104"/>
@@ -3595,7 +3686,7 @@
       <c r="J10" s="104"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="103"/>
       <c r="C11" s="104"/>
       <c r="D11" s="104"/>
@@ -3607,7 +3698,7 @@
       <c r="J11" s="104"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="103"/>
       <c r="C12" s="104">
         <v>12</v>
@@ -3623,7 +3714,7 @@
       <c r="J12" s="104"/>
       <c r="K12" s="104"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="103"/>
       <c r="C13" s="104"/>
       <c r="D13" s="104"/>
@@ -3635,7 +3726,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="103"/>
       <c r="C14" s="104"/>
       <c r="D14" s="104"/>
@@ -3647,7 +3738,7 @@
       <c r="J14" s="104"/>
       <c r="K14" s="104"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="103"/>
       <c r="C15" s="104"/>
       <c r="D15" s="104"/>
@@ -3659,7 +3750,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="104"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="103"/>
       <c r="C16" s="104"/>
       <c r="D16" s="104"/>
@@ -3671,7 +3762,7 @@
       <c r="J16" s="104"/>
       <c r="K16" s="104"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="103"/>
       <c r="C17" s="104"/>
       <c r="D17" s="104"/>
@@ -3683,7 +3774,7 @@
       <c r="J17" s="104"/>
       <c r="K17" s="104"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
       <c r="D18" s="104"/>
@@ -3695,7 +3786,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="104"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
       <c r="D19" s="104"/>
@@ -3707,7 +3798,7 @@
       <c r="J19" s="104"/>
       <c r="K19" s="104"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
       <c r="D20" s="104"/>
@@ -3719,7 +3810,7 @@
       <c r="J20" s="104"/>
       <c r="K20" s="104"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
       <c r="D21" s="104"/>
@@ -3731,7 +3822,7 @@
       <c r="J21" s="104"/>
       <c r="K21" s="104"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="103"/>
       <c r="C22" s="104" t="s">
         <v>63</v>
@@ -3745,7 +3836,7 @@
       <c r="J22" s="104"/>
       <c r="K22" s="104"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
       <c r="D23" s="104"/>
@@ -3757,7 +3848,7 @@
       <c r="J23" s="104"/>
       <c r="K23" s="104"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
       <c r="D24" s="104"/>
@@ -3769,7 +3860,7 @@
       <c r="J24" s="104"/>
       <c r="K24" s="104"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
       <c r="D25" s="104"/>
@@ -3781,7 +3872,7 @@
       <c r="J25" s="104"/>
       <c r="K25" s="104"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
       <c r="D26" s="104"/>
@@ -3793,7 +3884,7 @@
       <c r="J26" s="104"/>
       <c r="K26" s="104"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
       <c r="D27" s="104"/>
@@ -3805,7 +3896,7 @@
       <c r="J27" s="104"/>
       <c r="K27" s="104"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="103"/>
       <c r="C28" s="104"/>
       <c r="D28" s="104"/>
@@ -3817,7 +3908,7 @@
       <c r="J28" s="104"/>
       <c r="K28" s="104"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="103"/>
       <c r="C29" s="104">
         <v>128000</v>
@@ -3833,7 +3924,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="104"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
       <c r="D30" s="104"/>
@@ -3845,7 +3936,7 @@
       <c r="J30" s="104"/>
       <c r="K30" s="104"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
       <c r="D31" s="104"/>
@@ -3857,7 +3948,7 @@
       <c r="J31" s="104"/>
       <c r="K31" s="104"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
       <c r="D32" s="104"/>
@@ -3869,7 +3960,7 @@
       <c r="J32" s="104"/>
       <c r="K32" s="104"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
       <c r="D33" s="104"/>
@@ -3881,7 +3972,7 @@
       <c r="J33" s="104"/>
       <c r="K33" s="104"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
       <c r="D34" s="104"/>
@@ -3893,7 +3984,7 @@
       <c r="J34" s="104"/>
       <c r="K34" s="104"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
       <c r="D35" s="104"/>
@@ -3905,7 +3996,7 @@
       <c r="J35" s="104"/>
       <c r="K35" s="104"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="103"/>
       <c r="C36" s="104"/>
       <c r="D36" s="104"/>
@@ -3917,7 +4008,7 @@
       <c r="J36" s="104"/>
       <c r="K36" s="104"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="103"/>
       <c r="C37" s="104"/>
       <c r="D37" s="104"/>
@@ -3929,7 +4020,7 @@
       <c r="J37" s="104"/>
       <c r="K37" s="104"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="103"/>
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
@@ -3941,7 +4032,7 @@
       <c r="J38" s="104"/>
       <c r="K38" s="104"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="103"/>
       <c r="C39" s="104"/>
       <c r="D39" s="104"/>
@@ -3953,7 +4044,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="104"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="103"/>
       <c r="C40" s="104"/>
       <c r="D40" s="104"/>
@@ -3965,7 +4056,7 @@
       <c r="J40" s="104"/>
       <c r="K40" s="104"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="103"/>
       <c r="C41" s="104" t="s">
         <v>54</v>
@@ -3979,7 +4070,7 @@
       <c r="J41" s="104"/>
       <c r="K41" s="104"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="103"/>
       <c r="C42" s="104" t="s">
         <v>67</v>
@@ -3993,7 +4084,7 @@
       <c r="J42" s="104"/>
       <c r="K42" s="104"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="103"/>
       <c r="C43" s="104"/>
       <c r="D43" s="104"/>
@@ -4005,7 +4096,7 @@
       <c r="J43" s="104"/>
       <c r="K43" s="104"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="103"/>
       <c r="C44" s="104"/>
       <c r="D44" s="104"/>
@@ -4017,7 +4108,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="104"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="103"/>
       <c r="C45" s="104"/>
       <c r="D45" s="104"/>
@@ -4029,7 +4120,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="104"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11">
       <c r="B46" s="103"/>
       <c r="C46" s="104"/>
       <c r="D46" s="104"/>
@@ -4041,7 +4132,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="104"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="103"/>
       <c r="C47" s="104">
         <v>50000</v>
@@ -4057,7 +4148,7 @@
       <c r="J47" s="104"/>
       <c r="K47" s="104"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="103"/>
       <c r="C48" s="104"/>
       <c r="D48" s="104"/>
@@ -4069,7 +4160,7 @@
       <c r="J48" s="104"/>
       <c r="K48" s="104"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11">
       <c r="B49" s="103"/>
       <c r="C49" s="104"/>
       <c r="D49" s="104"/>
@@ -4081,7 +4172,7 @@
       <c r="J49" s="104"/>
       <c r="K49" s="104"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="103"/>
       <c r="C50" s="104"/>
       <c r="D50" s="104"/>
@@ -4093,7 +4184,7 @@
       <c r="J50" s="104"/>
       <c r="K50" s="104"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11">
       <c r="B51" s="103"/>
       <c r="C51" s="104"/>
       <c r="D51" s="104"/>
@@ -4105,7 +4196,7 @@
       <c r="J51" s="104"/>
       <c r="K51" s="104"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="103"/>
       <c r="C52" s="104" t="s">
         <v>66</v>
@@ -4119,7 +4210,7 @@
       <c r="J52" s="104"/>
       <c r="K52" s="104"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="103"/>
       <c r="C53" s="104"/>
       <c r="D53" s="104"/>
@@ -4131,7 +4222,7 @@
       <c r="J53" s="104"/>
       <c r="K53" s="104"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11">
       <c r="B54" s="103"/>
       <c r="C54" s="104">
         <f>0.02</f>
@@ -4148,7 +4239,7 @@
       <c r="J54" s="104"/>
       <c r="K54" s="104"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11">
       <c r="B55" s="103"/>
       <c r="C55" s="107">
         <v>1.55E-2</v>
@@ -4164,7 +4255,7 @@
       <c r="J55" s="104"/>
       <c r="K55" s="104"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11">
       <c r="B56" s="103"/>
       <c r="C56" s="104"/>
       <c r="D56" s="104"/>
@@ -4176,7 +4267,7 @@
       <c r="J56" s="104"/>
       <c r="K56" s="104"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11">
       <c r="B57" s="103"/>
       <c r="C57" s="104"/>
       <c r="D57" s="104"/>
@@ -4188,7 +4279,7 @@
       <c r="J57" s="104"/>
       <c r="K57" s="104"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11">
       <c r="B58" s="103"/>
       <c r="C58" s="104"/>
       <c r="D58" s="104"/>
@@ -4200,7 +4291,7 @@
       <c r="J58" s="104"/>
       <c r="K58" s="104"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11">
       <c r="B59" s="103"/>
       <c r="C59" s="104"/>
       <c r="D59" s="104"/>
@@ -4212,7 +4303,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="104"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="103"/>
       <c r="C60" s="104"/>
       <c r="D60" s="104"/>
@@ -4224,7 +4315,7 @@
       <c r="J60" s="104"/>
       <c r="K60" s="104"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="103"/>
       <c r="C61" s="104"/>
       <c r="D61" s="104"/>
@@ -4236,28 +4327,28 @@
       <c r="J61" s="104"/>
       <c r="K61" s="104"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11">
       <c r="B62" s="103"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11">
       <c r="B63" s="103"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11">
       <c r="B64" s="103"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="B65" s="103"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" s="103"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" s="103"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" s="103"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="B69" s="103"/>
       <c r="C69" s="111" t="s">
         <v>51</v>
@@ -4272,7 +4363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="B70" s="103"/>
       <c r="C70" s="111" t="s">
         <v>75</v>
@@ -4285,19 +4376,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="B71" s="103"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6">
       <c r="B72" s="103"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6">
       <c r="B73" s="103"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6">
       <c r="B74" s="103"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6">
       <c r="B75" s="103"/>
       <c r="D75" s="18" t="s">
         <v>99</v>
@@ -4305,27 +4396,27 @@
       <c r="E75" s="100">
         <v>2.31</v>
       </c>
-      <c r="F75" s="136" t="s">
+      <c r="F75" s="127" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6">
       <c r="B76" s="103"/>
       <c r="E76" s="100">
         <f>1/E75</f>
         <v>0.4329004329004329</v>
       </c>
-      <c r="F76" s="136" t="s">
+      <c r="F76" s="127" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="B77" s="103"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6">
       <c r="B78" s="103"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="B79" s="103"/>
       <c r="D79" s="18" t="s">
         <v>102</v>
@@ -4335,113 +4426,122 @@
         <v>4.4639861986778433</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6">
       <c r="B80" s="104"/>
       <c r="E80" s="100">
         <f>1/E79</f>
         <v>0.22401502950349242</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12">
       <c r="B81" s="104"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12">
       <c r="B82" s="104"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D82" s="139" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83" s="104"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D83" s="139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84" s="104"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D84" s="139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85" s="104"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12">
       <c r="B86" s="104"/>
     </row>
-    <row r="87" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="138"/>
-    </row>
-    <row r="88" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="138"/>
-      <c r="F88" s="136" t="s">
+    <row r="87" spans="2:12" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B87" s="129"/>
+    </row>
+    <row r="88" spans="2:12" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B88" s="129"/>
+      <c r="F88" s="127" t="s">
         <v>103</v>
       </c>
       <c r="G88" s="123">
         <v>7546</v>
       </c>
-      <c r="H88" s="136" t="s">
+      <c r="H88" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="J88" s="136" t="s">
+      <c r="J88" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="L88" s="136" t="s">
+      <c r="L88" s="139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B89" s="129"/>
+      <c r="F89" s="127" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="138"/>
-      <c r="F89" s="136" t="s">
-        <v>106</v>
       </c>
       <c r="G89" s="123">
         <v>68900</v>
       </c>
-      <c r="H89" s="136" t="s">
+      <c r="H89" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="J89" s="136" t="s">
+      <c r="J89" s="127" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="138"/>
-      <c r="F90" s="136" t="s">
-        <v>107</v>
+    <row r="90" spans="2:12" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B90" s="129"/>
+      <c r="F90" s="127" t="s">
+        <v>106</v>
       </c>
       <c r="G90" s="123">
         <v>17292.2</v>
       </c>
-      <c r="H90" s="136" t="s">
+      <c r="H90" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="J90" s="136" t="s">
+      <c r="J90" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="L90" s="136" t="s">
+      <c r="L90" s="127" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B91" s="129"/>
+      <c r="F91" s="127" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" s="136" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="138"/>
-      <c r="F91" s="136" t="s">
-        <v>109</v>
       </c>
       <c r="G91" s="123">
         <v>1469</v>
       </c>
-      <c r="H91" s="136" t="s">
+      <c r="H91" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="J91" s="136" t="s">
+      <c r="J91" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="L91" s="136" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
       <c r="B92" s="104"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12">
       <c r="B93" s="104"/>
     </row>
-    <row r="94" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="17" thickBot="1">
       <c r="B94" s="104"/>
     </row>
-    <row r="95" spans="2:12" s="120" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" s="120" customFormat="1" ht="17" thickBot="1">
       <c r="C95" s="121" t="s">
         <v>81</v>
       </c>
@@ -4449,8 +4549,8 @@
         <v>85</v>
       </c>
       <c r="E95" s="123">
-        <f>G88+G90</f>
-        <v>24838.2</v>
+        <f>G88</f>
+        <v>7546</v>
       </c>
       <c r="F95" s="122" t="s">
         <v>86</v>
@@ -4459,12 +4559,12 @@
       <c r="H95" s="122"/>
       <c r="I95" s="122"/>
     </row>
-    <row r="96" spans="2:12" s="120" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" s="120" customFormat="1" ht="17" thickBot="1">
       <c r="C96" s="122"/>
       <c r="D96" s="122"/>
       <c r="E96" s="122">
         <f>E95*1000000</f>
-        <v>24838200000</v>
+        <v>7546000000</v>
       </c>
       <c r="F96" s="122" t="s">
         <v>85</v>
@@ -4473,14 +4573,14 @@
       <c r="H96" s="122"/>
       <c r="I96" s="122"/>
     </row>
-    <row r="97" spans="3:9" s="120" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:9" s="120" customFormat="1" ht="17" thickBot="1">
       <c r="C97" s="122"/>
       <c r="D97" s="122" t="s">
         <v>87</v>
       </c>
       <c r="E97" s="124">
-        <f>G89+G91</f>
-        <v>70369</v>
+        <f>G89</f>
+        <v>68900</v>
       </c>
       <c r="F97" s="122" t="s">
         <v>88</v>
@@ -4489,12 +4589,12 @@
       <c r="H97" s="122"/>
       <c r="I97" s="122"/>
     </row>
-    <row r="98" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:9" s="120" customFormat="1">
       <c r="C98" s="122"/>
       <c r="D98" s="122"/>
       <c r="E98" s="125">
         <f>E97*1000000</f>
-        <v>70369000000</v>
+        <v>68900000000</v>
       </c>
       <c r="F98" s="122" t="s">
         <v>87</v>
@@ -4503,7 +4603,7 @@
       <c r="H98" s="122"/>
       <c r="I98" s="122"/>
     </row>
-    <row r="99" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:9" s="120" customFormat="1">
       <c r="C99" s="122"/>
       <c r="D99" s="122"/>
       <c r="E99" s="122"/>
@@ -4512,12 +4612,12 @@
       <c r="H99" s="122"/>
       <c r="I99" s="122"/>
     </row>
-    <row r="100" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:9" s="120" customFormat="1">
       <c r="C100" s="122"/>
       <c r="D100" s="122"/>
       <c r="E100" s="126">
         <f>E98/E96</f>
-        <v>2.8330957959916581</v>
+        <v>9.1306652531142323</v>
       </c>
       <c r="F100" s="122" t="s">
         <v>89</v>
@@ -4526,7 +4626,7 @@
       <c r="H100" s="122"/>
       <c r="I100" s="122"/>
     </row>
-    <row r="101" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:9" s="120" customFormat="1">
       <c r="C101" s="122"/>
       <c r="D101" s="122"/>
       <c r="E101" s="122"/>
@@ -4535,7 +4635,7 @@
       <c r="H101" s="122"/>
       <c r="I101" s="122"/>
     </row>
-    <row r="102" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:9" s="120" customFormat="1">
       <c r="C102" s="122"/>
       <c r="D102" s="122"/>
       <c r="E102" s="122"/>
@@ -4544,7 +4644,7 @@
       <c r="H102" s="122"/>
       <c r="I102" s="122"/>
     </row>
-    <row r="103" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:9" s="120" customFormat="1">
       <c r="C103" s="122"/>
       <c r="D103" s="122"/>
       <c r="E103" s="122"/>
@@ -4553,15 +4653,15 @@
       <c r="H103" s="122"/>
       <c r="I103" s="122"/>
     </row>
-    <row r="104" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:9" s="120" customFormat="1">
       <c r="C104" s="122"/>
       <c r="D104" s="122" t="str">
         <f>Dashboard!C11</f>
         <v>output.freight_tonne_kms</v>
       </c>
       <c r="E104" s="122">
-        <f>E100*E80</f>
-        <v>0.6346560383252916</v>
+        <f>E100*E70</f>
+        <v>0.97134736735257787</v>
       </c>
       <c r="F104" s="122" t="s">
         <v>90</v>
@@ -4572,7 +4672,7 @@
       </c>
       <c r="I104" s="122"/>
     </row>
-    <row r="105" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:9" s="120" customFormat="1">
       <c r="C105" s="122"/>
       <c r="D105" s="122"/>
       <c r="E105" s="122"/>
@@ -4581,7 +4681,7 @@
       <c r="H105" s="82"/>
       <c r="I105" s="122"/>
     </row>
-    <row r="106" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:9" s="120" customFormat="1">
       <c r="C106" s="122"/>
       <c r="D106" s="122"/>
       <c r="E106" s="122"/>
@@ -4590,7 +4690,7 @@
       <c r="H106" s="82"/>
       <c r="I106" s="122"/>
     </row>
-    <row r="107" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:9" s="120" customFormat="1">
       <c r="C107" s="122"/>
       <c r="D107" s="122"/>
       <c r="E107" s="122"/>
@@ -4599,44 +4699,44 @@
       <c r="H107" s="122"/>
       <c r="I107" s="122"/>
     </row>
-    <row r="108" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:9" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:9" s="120" customFormat="1"/>
+    <row r="109" spans="3:9" s="120" customFormat="1"/>
+    <row r="110" spans="3:9" s="120" customFormat="1"/>
+    <row r="111" spans="3:9" s="120" customFormat="1"/>
+    <row r="112" spans="3:9" s="120" customFormat="1"/>
+    <row r="113" s="120" customFormat="1"/>
+    <row r="114" s="120" customFormat="1"/>
+    <row r="115" s="120" customFormat="1"/>
+    <row r="116" s="120" customFormat="1"/>
+    <row r="117" s="120" customFormat="1"/>
+    <row r="118" s="120" customFormat="1"/>
+    <row r="119" s="120" customFormat="1"/>
+    <row r="120" s="120" customFormat="1"/>
+    <row r="121" s="120" customFormat="1"/>
+    <row r="122" s="120" customFormat="1"/>
+    <row r="123" s="120" customFormat="1"/>
+    <row r="124" s="120" customFormat="1"/>
+    <row r="125" s="120" customFormat="1"/>
+    <row r="126" s="120" customFormat="1"/>
+    <row r="127" s="120" customFormat="1"/>
+    <row r="128" s="120" customFormat="1"/>
+    <row r="129" spans="2:2" s="120" customFormat="1"/>
+    <row r="130" spans="2:2">
       <c r="B130" s="103"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="103"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="103"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="103"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="103"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="103"/>
     </row>
   </sheetData>
